--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="16980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,118 @@
   </si>
   <si>
     <t>除后台管理外所有UI UE设计图实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已联系到供应商，正在谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务读取图像目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成最清晰图像的json文件，能根据json文件快速定位到图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取胚胎部分图像生成缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最清晰图像提取出胚胎部分图像，并生成缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器租用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据反馈修改目前的UI UE设计稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认的设计开始进行HTML页面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用opencv_annotation程序对样例胚胎图像进行标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台用户管理页面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目前实现的后台管理用户功能实现到后台管理页面模板上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾羊城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎图像标注（第一阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台培养箱管理页面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理培养箱信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一验证用户合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供一个统一验证用户会话合法性的API，尽量采用装饰器提供给所有controller方式使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月31日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,8 +349,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,21 +400,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="31">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -643,164 +807,180 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -819,14 +999,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>7月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月24日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1006,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1169,7 +1173,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>60</v>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="16980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
     <sheet name="6月18日-6月24日" sheetId="2" r:id="rId2"/>
+    <sheet name="6月25日-7月1日" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +272,173 @@
   </si>
   <si>
     <t>6月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月23日</t>
+  </si>
+  <si>
+    <t>当前没有完整病例数据，无法进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前机器学习的效果还不够精确，需要继续改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月25日中午push到仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月25日开始进行页面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除功能未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用flask_login遇到问题，正在协调解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找甲方要完整周期数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取完整周期图像和背景图像，做前期处理，为后续学习做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用完整周期数据测试定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据目前标注的数据在云服务器上进行机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有修改意见，继续修改设计稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历查询和病历详情页面页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎图像标注（第二阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用新获得的胚胎图像数据进行人工标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现查看编辑病历详情功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现搜索病历查询页面功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现综合查询功能，并与刘勇智的病历查询页面对接，实现项目全局搜索功能的统一实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局搜索controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github上的bug issue的修改和更正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智、艾羊城、刘冬梅、王滢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智、艾羊城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,8 +521,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -414,7 +588,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -430,6 +604,9 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -445,6 +622,9 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1005,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1052,8 +1232,12 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
@@ -1068,8 +1252,12 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
@@ -1082,7 +1270,9 @@
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
@@ -1098,8 +1288,12 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
@@ -1114,8 +1308,12 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
@@ -1130,7 +1328,9 @@
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -1146,8 +1346,12 @@
       <c r="D8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1162,7 +1366,9 @@
       <c r="D9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -1178,8 +1384,12 @@
       <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7"/>
@@ -1212,6 +1422,262 @@
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
     <sheet name="6月18日-6月24日" sheetId="2" r:id="rId2"/>
     <sheet name="6月25日-7月1日" sheetId="3" r:id="rId3"/>
+    <sheet name="7月2日-7月8日" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +440,86 @@
   </si>
   <si>
     <t>刘勇智、艾羊城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的移动硬盘7月2日上午已从上海发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据提供自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计数据的多样性不够，opencv的目标检测精度未有大提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续如有改动，仍需持续调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月4日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有病历模块页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现的模块功能单元测试并提交Github记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +569,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -521,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -559,8 +648,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,8 +692,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="53">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -607,6 +713,14 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -625,6 +739,14 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1439,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1486,8 +1608,12 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
@@ -1500,8 +1626,12 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
@@ -1516,8 +1646,12 @@
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
@@ -1532,8 +1666,12 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
@@ -1548,7 +1686,9 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
@@ -1564,8 +1704,8 @@
       <c r="D7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
@@ -1580,8 +1720,8 @@
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1596,8 +1736,8 @@
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -1612,8 +1752,9 @@
       <c r="D10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="7" t="s">
@@ -1628,8 +1769,8 @@
       <c r="D11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="7" t="s">
@@ -1644,7 +1785,9 @@
       <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
@@ -1678,6 +1821,230 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
     <sheet name="6月18日-6月24日" sheetId="2" r:id="rId2"/>
     <sheet name="6月25日-7月1日" sheetId="3" r:id="rId3"/>
     <sheet name="7月2日-7月8日" sheetId="4" r:id="rId4"/>
+    <sheet name="7月9日-7月15日" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +521,94 @@
   </si>
   <si>
     <t>7月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月6日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本前期处理完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月7日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造周期数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造两个周期数据供开发使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人标注胚胎位置图像约2000张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历回访功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现统计页面基本功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取完整图像REST API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现获取某个培养箱某个皿某个孔某个时间的图像REST API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug修改和自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github上bug issue的修改和再次进行自测反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现病历回访登记功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎视图页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,6 +666,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -610,7 +705,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -664,8 +759,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,12 +800,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="69">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -721,6 +844,14 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -747,6 +878,14 @@
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1113,7 +1252,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1131,7 +1270,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1608,10 +1747,10 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1626,10 +1765,10 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1704,8 +1843,8 @@
       <c r="D7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
@@ -1720,8 +1859,8 @@
       <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1736,8 +1875,8 @@
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -1769,8 +1908,8 @@
       <c r="D11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="7" t="s">
@@ -1838,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1885,22 +2024,28 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
@@ -1931,24 +2076,28 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
@@ -1963,7 +2112,9 @@
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -1979,24 +2130,28 @@
       <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="7" t="s">
@@ -2010,6 +2165,232 @@
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="6月25日-7月1日" sheetId="3" r:id="rId3"/>
     <sheet name="7月2日-7月8日" sheetId="4" r:id="rId4"/>
     <sheet name="7月9日-7月15日" sheetId="5" r:id="rId5"/>
+    <sheet name="7月16日-7月22日" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +597,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实现病历回访登记功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎视图页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙于处理其他事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Bug修改和自测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,11 +637,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现病历回访登记功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胚胎视图页面</t>
+    <t>由于数据延误及忙于处理其他学习模型相关问题导致延误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎目标检测第二轮训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在云服务器上完成第二轮训练并验证效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须完成！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅、王滢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由王滢协助刘冬梅理解采集图像的目录结构，定时任务处理的结果逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充胚胎视图页面功能、实现首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎视图设置里程碑节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击设为里程碑节点后，页面展现不同形式，并存储用户定义的里程碑节点数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎视图时间轴获取及展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾羊城、王滢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得图像采集的所有时间轴节点，并返回到前端进行渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由王滢协助艾羊城完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎视图Z轴获取及展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得图像采集的所有Z轴节点，并返回到前端进行渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由王滢协助刘冬梅完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +806,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -775,8 +876,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -801,9 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -816,8 +930,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="85">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -852,6 +970,14 @@
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -886,6 +1012,14 @@
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,7 +1386,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1270,7 +1404,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2032,14 +2166,14 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9"/>
@@ -2082,16 +2216,16 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="9"/>
@@ -2136,16 +2270,16 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="9"/>
@@ -2219,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2266,22 +2400,28 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
@@ -2304,7 +2444,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>136</v>
@@ -2312,23 +2452,27 @@
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6">
@@ -2336,7 +2480,7 @@
         <v>137</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>121</v>
@@ -2344,7 +2488,9 @@
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
@@ -2360,39 +2506,47 @@
       <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
@@ -2426,6 +2580,222 @@
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="17960" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="7月2日-7月8日" sheetId="4" r:id="rId4"/>
     <sheet name="7月9日-7月15日" sheetId="5" r:id="rId5"/>
     <sheet name="7月16日-7月22日" sheetId="6" r:id="rId6"/>
+    <sheet name="7月23日-7月29日" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="193">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由王滢协助艾羊城完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胚胎视图Z轴获取及展现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,7 +706,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由王滢协助刘冬梅完成</t>
+    <t>7月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差页面渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎图像分类神经网络训练程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月29日</t>
+  </si>
+  <si>
+    <t>7月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用tensorflow和keras实现图像分类模型训练（第一轮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像分类标注任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一帧下一帧功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面功能上一帧和下一帧的图像切换，包括绑定键盘事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面功能Z轴图像切换，包括鼠标滚轮事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎结局标注功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎结局标注功能，包括图像角标展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皿视图页面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用工具对缩略图进行分类标注（第一轮），每人至少完成2000张图像分类标注任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王滢、刘冬梅、刘勇智、艾羊城、罗滕可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +890,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -892,8 +976,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -930,12 +1022,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="93">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -978,6 +1079,10 @@
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1020,6 +1125,10 @@
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,7 +1495,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1404,7 +1513,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2579,7 @@
       <c r="D6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>149</v>
       </c>
       <c r="F6" s="9"/>
@@ -2597,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2644,7 +2753,9 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
@@ -2658,8 +2769,10 @@
       <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2676,8 +2789,10 @@
       <c r="D4" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2710,7 +2825,9 @@
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -2726,8 +2843,12 @@
       <c r="D7" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
@@ -2742,17 +2863,19 @@
       <c r="D8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>168</v>
+      <c r="E8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>161</v>
@@ -2760,9 +2883,11 @@
       <c r="D9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>171</v>
+      <c r="E9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2796,6 +2921,216 @@
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="17960" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="17960" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="7月9日-7月15日" sheetId="5" r:id="rId5"/>
     <sheet name="7月16日-7月22日" sheetId="6" r:id="rId6"/>
     <sheet name="7月23日-7月29日" sheetId="7" r:id="rId7"/>
+    <sheet name="7月30日-8月5日" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="224">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +795,130 @@
   </si>
   <si>
     <t>王滢、刘冬梅、刘勇智、艾羊城、罗滕可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在标注的6万张图像上，使用Xception模型训练20epochs后，达到训练集上准确率为97.6，验证集上准确率为91.57，测试集上准确率为91.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬梅、勇智、羊城、滕可四人对于胚胎形态不熟悉，在标注过程中遇到较大问题，有待后续再行培训解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未串大家的功能，约90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找较优模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现自动登记里程碑节点功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用第一轮深度神经网络结果，对样例病历进行分析，自动得到各胚胎里程碑节点和响应数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王滢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现胚胎视图连续播放功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击播放按钮后以每秒5帧的速率（暂定）播放胚胎最清晰图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现上一里程碑和下一里程碑功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上一里程碑或下一里程碑按钮（并绑定键盘事件），页面展现上一里程碑节点和下一里程碑节点功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现设置为最清晰图像功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置为最清晰图像后，更新JSON文件并生成新的缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现设置胚胎结局功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击胚胎结局按钮后，所有图像显示角标，并保存胚胎结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取胚胎几何数据并展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从JSON文件中读取里程碑节点胚胎的几何数据并展示页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾羊城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎几何测量功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现胚胎几何测量功能，面积（圆）、直径（直线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王滢辅助艾羊城实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养箱视图页面实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,8 +1015,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1023,9 +1150,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,8 +1159,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1083,6 +1210,7 @@
     <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1129,6 +1257,7 @@
     <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1495,7 +1624,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1513,7 +1642,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2938,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2949,7 +3078,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17">
@@ -2962,13 +3091,247 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2977,128 +3340,130 @@
         <v>176</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="12" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="7" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>32</v>
+        <v>201</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>28</v>
+        <v>201</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>188</v>
+        <v>201</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -3110,27 +3475,27 @@
       <c r="C10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="7月23日-7月29日" sheetId="7" r:id="rId7"/>
     <sheet name="7月30日-8月5日" sheetId="8" r:id="rId8"/>
     <sheet name="8月6日-8月12日" sheetId="9" r:id="rId9"/>
+    <sheet name="8月13日-8月19日" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>任务名称</t>
   </si>
@@ -534,19 +535,28 @@
     <t>看数据增加后的优化效果是否明显</t>
   </si>
   <si>
+    <t>使用17多万张标注图像训练结果，达到96.8的测试集准确率</t>
+  </si>
+  <si>
+    <t>实现逻辑还有点问题</t>
+  </si>
+  <si>
     <t>皿视图全部孔位播放技术预研</t>
   </si>
   <si>
     <t>找到一个可行方案能在皿视图中同时播放12个孔位的视频</t>
   </si>
   <si>
+    <t>出差成都导致无法完成</t>
+  </si>
+  <si>
     <t>后台设置评分标准页面</t>
   </si>
   <si>
     <t>可以对每个里程碑节点设置多个评分标准条件，并生成JSON配置保存到数据库中</t>
   </si>
   <si>
-    <t>王滢协助</t>
+    <t>因王滢未能画出原型导致页面没做，无法开展</t>
   </si>
   <si>
     <t>皿视图胚胎结局标注</t>
@@ -558,7 +568,31 @@
     <t>胚胎视图时间序列左右滑动功能</t>
   </si>
   <si>
+    <t>交互设计没完成</t>
+  </si>
+  <si>
     <t>胚胎视图保存视频和保存图像功能</t>
+  </si>
+  <si>
+    <t>评分标准原型设计</t>
+  </si>
+  <si>
+    <t>必须完成</t>
+  </si>
+  <si>
+    <t>培养箱视图实现</t>
+  </si>
+  <si>
+    <t>实现培养箱视图页面</t>
+  </si>
+  <si>
+    <t>新建病历模块 - 查找培养箱和皿</t>
+  </si>
+  <si>
+    <t>查找采集目录中哪些采集目录仍未与病历周期关联，提供到页面中供用户选择</t>
+  </si>
+  <si>
+    <t>云端注册页面实现</t>
   </si>
 </sst>
 </file>
@@ -566,12 +600,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,22 +635,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,52 +666,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,10 +690,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,9 +741,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,16 +779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +795,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +879,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,115 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,12 +976,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,6 +1004,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -972,6 +1054,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,75 +1101,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,135 +1119,147 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,40 +1270,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1256,9 +1343,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1266,7 +1350,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1277,43 +1361,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1654,214 +1740,446 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29" style="35" customWidth="1"/>
     <col min="2" max="2" width="56.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="24" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="23.8333333333333" style="35" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" ht="28.5" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43331</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1888,228 +2206,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2138,251 +2456,251 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" ht="28.5" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2411,216 +2729,216 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2649,218 +2967,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2889,206 +3207,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="34" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3117,208 +3435,208 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3347,210 +3665,210 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <v>43317</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="31">
         <v>43317</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="32">
         <v>43317</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="32">
         <v>43317</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="29" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="29" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3566,7 +3884,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
@@ -3576,222 +3894,259 @@
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>43324</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="12">
+        <v>43324</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="22">
         <v>43324</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>43324</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>43324</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="12">
+        <v>43324</v>
+      </c>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="22">
         <v>43324</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="A7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="10">
         <v>43324</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="E7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="22">
         <v>43324</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="A9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="10">
         <v>43324</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="A10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="10">
         <v>43324</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="12">
+        <v>43324</v>
+      </c>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="22">
         <v>43324</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="22">
         <v>43324</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="12">
+        <v>43324</v>
+      </c>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="7月30日-8月5日" sheetId="8" r:id="rId8"/>
     <sheet name="8月6日-8月12日" sheetId="9" r:id="rId9"/>
     <sheet name="8月13日-8月19日" sheetId="10" r:id="rId10"/>
+    <sheet name="8月20日-8月26日" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>任务名称</t>
   </si>
@@ -577,7 +578,10 @@
     <t>评分标准原型设计</t>
   </si>
   <si>
-    <t>必须完成</t>
+    <t>模型自动获得节点代码已完成，写入数据库里程碑节点还未想好最佳的逻辑</t>
+  </si>
+  <si>
+    <t>基本完成预研，得到一个可行性方案</t>
   </si>
   <si>
     <t>培养箱视图实现</t>
@@ -593,6 +597,39 @@
   </si>
   <si>
     <t>云端注册页面实现</t>
+  </si>
+  <si>
+    <t>评分标准页面功能实现</t>
+  </si>
+  <si>
+    <t>评分标准页面功能并持久化到数据库</t>
+  </si>
+  <si>
+    <t>评分标准专家系统预研</t>
+  </si>
+  <si>
+    <t>项目导入专家系统，能动态根据评分标准JSON数据获得胚胎评分（预研）</t>
+  </si>
+  <si>
+    <t>皿视图基准胚胎上下里程碑功能</t>
+  </si>
+  <si>
+    <t>用户选择基准胚胎后，点击上一里程碑和下一里程碑，实现12个孔位图像跳转功能</t>
+  </si>
+  <si>
+    <t>实现皿视图全部孔位播放功能</t>
+  </si>
+  <si>
+    <t>在皿视图中同时播放12个孔位的视频</t>
+  </si>
+  <si>
+    <t>皿视图时间轴功能实现</t>
+  </si>
+  <si>
+    <t>皿视图中时间序列横轴展示、点击跳转功能实现</t>
+  </si>
+  <si>
+    <t>评分标准页面实现</t>
   </si>
 </sst>
 </file>
@@ -601,9 +638,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -632,6 +669,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,6 +709,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -690,14 +772,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -714,58 +788,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,6 +815,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -795,7 +832,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,43 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,31 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,49 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,148 +1141,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,47 +1321,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1772,7 +1809,7 @@
       <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1788,7 +1825,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="36"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1806,7 +1843,7 @@
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1826,7 +1863,7 @@
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1844,7 +1881,7 @@
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1862,7 +1899,7 @@
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1880,7 +1917,7 @@
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1898,7 +1935,7 @@
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1914,7 +1951,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="33"/>
@@ -1922,7 +1959,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="33"/>
@@ -1930,7 +1967,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="33"/>
@@ -1938,7 +1975,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="33"/>
@@ -1959,8 +1996,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2006,52 +2043,54 @@
       <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="E2" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="10">
         <v>43331</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="10">
         <v>43331</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="E4" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="10">
@@ -2060,15 +2099,19 @@
       <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="19" t="s">
         <v>186</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="C6" s="10">
         <v>43331</v>
@@ -2076,14 +2119,16 @@
       <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="10">
@@ -2092,16 +2137,16 @@
       <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="E7" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="10">
@@ -2110,16 +2155,16 @@
       <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="13" t="s">
-        <v>184</v>
-      </c>
+      <c r="E8" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="10">
@@ -2128,15 +2173,17 @@
       <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="19" t="s">
         <v>188</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="C10" s="10">
         <v>43331</v>
@@ -2144,31 +2191,33 @@
       <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>189</v>
+      <c r="B12" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="C12" s="10">
         <v>43331</v>
@@ -2176,8 +2225,200 @@
       <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="10">
+        <v>43331</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43338</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43336</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2229,7 +2470,7 @@
       <c r="A2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2249,7 +2490,7 @@
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2269,7 +2510,7 @@
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2526,7 @@
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2305,7 +2546,7 @@
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2325,7 +2566,7 @@
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2343,7 +2584,7 @@
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2363,7 +2604,7 @@
       <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -2381,7 +2622,7 @@
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2399,7 +2640,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="33"/>
@@ -2407,7 +2648,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="33"/>
@@ -2415,7 +2656,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="33"/>
@@ -2423,7 +2664,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="33"/>
@@ -2479,7 +2720,7 @@
       <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2499,7 +2740,7 @@
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="9" t="s">
         <v>61</v>
       </c>
@@ -2517,7 +2758,7 @@
       <c r="A4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2537,7 +2778,7 @@
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2557,7 +2798,7 @@
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2575,7 +2816,7 @@
       <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2591,7 +2832,7 @@
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2607,7 +2848,7 @@
       <c r="A9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -2623,7 +2864,7 @@
       <c r="A10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2640,7 +2881,7 @@
       <c r="A11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2656,7 +2897,7 @@
       <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -2672,7 +2913,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="33"/>
@@ -2680,7 +2921,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="33"/>
@@ -2688,7 +2929,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="33"/>
@@ -2696,7 +2937,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="33"/>
@@ -2752,7 +2993,7 @@
       <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2788,7 +3029,7 @@
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2804,7 +3045,7 @@
       <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2840,7 +3081,7 @@
       <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2858,7 +3099,7 @@
       <c r="A8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2894,7 +3135,7 @@
       <c r="A10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2910,7 +3151,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="33"/>
@@ -2918,7 +3159,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="33"/>
@@ -2926,7 +3167,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="33"/>
@@ -2934,7 +3175,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="33"/>
@@ -2990,7 +3231,7 @@
       <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3005,14 +3246,14 @@
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="30" t="s">
@@ -3026,7 +3267,7 @@
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -3042,7 +3283,7 @@
       <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3057,16 +3298,16 @@
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="34" t="s">
@@ -3078,7 +3319,7 @@
       <c r="A7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3096,7 +3337,7 @@
       <c r="A8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3111,16 +3352,16 @@
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="30" t="s">
@@ -3134,13 +3375,13 @@
       <c r="A10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3150,7 +3391,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="33"/>
@@ -3158,7 +3399,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="33"/>
@@ -3166,7 +3407,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="33"/>
@@ -3174,7 +3415,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="33"/>
@@ -3230,7 +3471,7 @@
       <c r="A2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3245,17 +3486,17 @@
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="34" t="s">
@@ -3263,16 +3504,16 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="34" t="s">
@@ -3286,7 +3527,7 @@
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3302,7 +3543,7 @@
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3317,16 +3558,16 @@
       <c r="F6" s="33"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="30" t="s">
@@ -3340,7 +3581,7 @@
       <c r="A8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3360,7 +3601,7 @@
       <c r="A9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3378,7 +3619,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="33"/>
@@ -3386,7 +3627,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="33"/>
@@ -3394,7 +3635,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="33"/>
@@ -3402,7 +3643,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="33"/>
@@ -3458,7 +3699,7 @@
       <c r="A2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3470,41 +3711,41 @@
       <c r="E2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="30" t="s">
@@ -3518,10 +3759,10 @@
       <c r="A5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -3536,10 +3777,10 @@
       <c r="A6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -3554,10 +3795,10 @@
       <c r="A7" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -3566,16 +3807,16 @@
       <c r="E7" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -3584,16 +3825,16 @@
       <c r="E8" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -3602,13 +3843,13 @@
       <c r="E9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3618,13 +3859,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3636,7 +3877,7 @@
       <c r="E11" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3688,7 +3929,7 @@
       <c r="A2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3700,21 +3941,21 @@
       <c r="E2" s="10">
         <v>43317</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -3725,16 +3966,16 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="30" t="s">
@@ -3748,10 +3989,10 @@
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -3766,10 +4007,10 @@
       <c r="A6" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -3784,10 +4025,10 @@
       <c r="A7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -3796,16 +4037,16 @@
       <c r="E7" s="32">
         <v>43317</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -3814,16 +4055,16 @@
       <c r="E8" s="32">
         <v>43317</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -3840,7 +4081,7 @@
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3850,16 +4091,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -3922,7 +4163,7 @@
       <c r="A2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="10">
@@ -3931,50 +4172,50 @@
       <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="21">
         <v>43324</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>43324</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="10">
         <v>43324</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0.7</v>
       </c>
     </row>
@@ -3982,37 +4223,37 @@
       <c r="A5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>43324</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="21">
         <v>43324</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>43324</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4020,7 +4261,7 @@
       <c r="A7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>176</v>
       </c>
       <c r="C7" s="10">
@@ -4029,10 +4270,10 @@
       <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4040,16 +4281,16 @@
       <c r="A8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>43324</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="26">
@@ -4060,7 +4301,7 @@
       <c r="A9" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="10">
@@ -4069,10 +4310,10 @@
       <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4080,7 +4321,7 @@
       <c r="A10" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="10">
@@ -4089,28 +4330,28 @@
       <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="21">
         <v>43324</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>43324</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4118,35 +4359,35 @@
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>43324</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="21">
         <v>43324</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="500" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="8月6日-8月12日" sheetId="9" r:id="rId9"/>
     <sheet name="8月13日-8月19日" sheetId="10" r:id="rId10"/>
     <sheet name="8月20日-8月26日" sheetId="11" r:id="rId11"/>
+    <sheet name="8月27日-9月2日" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>任务名称</t>
   </si>
@@ -605,6 +606,9 @@
     <t>评分标准页面功能并持久化到数据库</t>
   </si>
   <si>
+    <t>未完成-由于评分页面未设计好</t>
+  </si>
+  <si>
     <t>评分标准专家系统预研</t>
   </si>
   <si>
@@ -617,6 +621,9 @@
     <t>用户选择基准胚胎后，点击上一里程碑和下一里程碑，实现12个孔位图像跳转功能</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>实现皿视图全部孔位播放功能</t>
   </si>
   <si>
@@ -629,7 +636,28 @@
     <t>皿视图中时间序列横轴展示、点击跳转功能实现</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>评分标准页面实现</t>
+  </si>
+  <si>
+    <t>皿视图右边个人信息展示</t>
+  </si>
+  <si>
+    <t>皿视图右边个人信息展示以及修改备注</t>
+  </si>
+  <si>
+    <t>新建病历</t>
+  </si>
+  <si>
+    <t>未关联的采集目录</t>
+  </si>
+  <si>
+    <t>周期综合视图</t>
+  </si>
+  <si>
+    <t>桌面</t>
   </si>
 </sst>
 </file>
@@ -638,9 +666,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -679,9 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,9 +736,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,52 +755,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,13 +775,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -804,6 +784,54 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +860,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,25 +998,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,145 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,66 +1069,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1130,6 +1102,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1144,150 +1172,195 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1297,56 +1370,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1777,209 +1814,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29" style="35" customWidth="1"/>
-    <col min="2" max="2" width="56.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" style="35" customWidth="1"/>
+    <col min="1" max="1" width="29" style="38" customWidth="1"/>
+    <col min="2" max="2" width="56.6666666666667" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="23.8333333333333" style="38" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="36"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2005,230 +2042,230 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>43331</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>43331</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>43331</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>43331</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>43331</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>43331</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>43331</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>43331</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>43331</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>43331</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>43331</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>43331</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>43331</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>43331</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>43331</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>43331</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>43331</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>43331</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>43331</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>43331</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2242,8 +2279,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2251,178 +2288,402 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>43338</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="7">
+        <v>43338</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43338</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43338</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="10">
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="7">
         <v>43338</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
         <v>43338</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43338</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="E5" s="7">
+        <v>43338</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="10">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="7">
         <v>43338</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7">
         <v>43338</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43338</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="E7" s="7">
         <v>43338</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="E8" s="7">
         <v>43338</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="20" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="7">
+        <v>43338</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="7">
         <v>43336</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="7">
+        <v>43338</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="31" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43345</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43345</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2447,228 +2708,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="36" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2697,251 +2958,251 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" ht="28.5" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2970,216 +3231,216 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3208,218 +3469,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="33" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3448,206 +3709,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="33" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3670,214 +3931,214 @@
     <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3900,216 +4161,216 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>43317</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="34">
         <v>43317</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="35">
         <v>43317</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="35">
         <v>43317</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="32" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4126,7 +4387,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4134,260 +4395,260 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>43324</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="24">
         <v>43324</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="21">
         <v>43324</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>43324</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="27">
         <v>0.7</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="21">
         <v>43324</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="24">
         <v>43324</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="21">
         <v>43324</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>43324</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="19" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="21">
         <v>43324</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="29">
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>43324</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>43324</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="24">
         <v>43324</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="21">
         <v>43324</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="21">
         <v>43324</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="24">
         <v>43324</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -665,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -703,14 +703,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,8 +747,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,7 +758,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,25 +784,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,6 +800,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,62 +844,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,7 +860,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +926,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +974,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,49 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,55 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,25 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,6 +1069,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1078,11 +1102,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,17 +1132,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,186 +1166,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,6 +1355,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1393,9 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1815,7 +1815,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29" style="38" customWidth="1"/>
-    <col min="2" max="2" width="56.6666666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="56.6666666666667" style="17" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="38" customWidth="1"/>
     <col min="4" max="4" width="23.8333333333333" style="38" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
@@ -1846,7 +1846,7 @@
       <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1880,7 +1880,7 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1900,7 +1900,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1918,7 +1918,7 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1936,7 +1936,7 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1954,7 +1954,7 @@
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1972,7 +1972,7 @@
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1988,7 +1988,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="36"/>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -2042,9 +2042,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19" style="17" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19" style="18" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -2083,7 +2083,7 @@
       <c r="E2" s="7">
         <v>43331</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -2101,7 +2101,7 @@
       <c r="E3" s="7">
         <v>43331</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2121,13 +2121,13 @@
       <c r="E4" s="7">
         <v>43331</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="7">
@@ -2139,7 +2139,7 @@
       <c r="E5" s="7">
         <v>43331</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="7">
@@ -2159,13 +2159,13 @@
       <c r="E6" s="7">
         <v>43331</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="7">
@@ -2177,13 +2177,13 @@
       <c r="E7" s="7">
         <v>43331</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="7">
@@ -2195,13 +2195,13 @@
       <c r="E8" s="7">
         <v>43331</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="7">
@@ -2213,13 +2213,13 @@
       <c r="E9" s="7">
         <v>43331</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>189</v>
       </c>
       <c r="C10" s="7">
@@ -2231,29 +2231,29 @@
       <c r="E10" s="7">
         <v>43331</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="7">
@@ -2265,7 +2265,7 @@
       <c r="E12" s="7">
         <v>43331</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2288,9 +2288,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19" style="17" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19" style="18" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -2329,7 +2329,7 @@
       <c r="E2" s="7">
         <v>43338</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       <c r="E3" s="7">
         <v>43338</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="E4" s="7">
         <v>43338</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="A5" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="7">
@@ -2389,7 +2389,7 @@
       <c r="E5" s="7">
         <v>43338</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="7">
@@ -2409,7 +2409,7 @@
       <c r="E6" s="7">
         <v>43338</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="A7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="7">
@@ -2429,7 +2429,7 @@
       <c r="E7" s="7">
         <v>43338</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="A8" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2449,7 +2449,7 @@
       <c r="E8" s="7">
         <v>43338</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2457,10 +2457,10 @@
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2469,7 +2469,7 @@
       <c r="E9" s="7">
         <v>43338</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="7">
@@ -2489,7 +2489,7 @@
       <c r="E10" s="7">
         <v>43338</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2516,6 +2516,7 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -2574,7 +2575,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:6">
+    <row r="4" ht="35" customHeight="1" spans="1:6">
       <c r="A4" s="11" t="s">
         <v>205</v>
       </c>
@@ -2590,7 +2591,9 @@
       <c r="E4" s="9">
         <v>43345</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
@@ -2608,7 +2611,9 @@
       <c r="E5" s="9">
         <v>43345</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -2626,7 +2631,9 @@
       <c r="E6" s="9">
         <v>43345</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
@@ -2644,16 +2651,18 @@
       <c r="E7" s="9">
         <v>43345</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:6">
+      <c r="F7" s="14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2662,13 +2671,15 @@
       <c r="E8" s="9">
         <v>43345</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C9" s="7">
@@ -2680,7 +2691,9 @@
       <c r="E9" s="9">
         <v>43345</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2731,7 +2744,7 @@
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2751,7 +2764,7 @@
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2771,7 +2784,7 @@
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
@@ -2787,7 +2800,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2807,7 +2820,7 @@
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2827,7 +2840,7 @@
       <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2845,7 +2858,7 @@
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2865,7 +2878,7 @@
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2883,7 +2896,7 @@
       <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2901,7 +2914,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -2909,7 +2922,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -2917,7 +2930,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -2925,7 +2938,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -2981,7 +2994,7 @@
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3001,7 +3014,7 @@
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
@@ -3019,7 +3032,7 @@
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3039,7 +3052,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3059,7 +3072,7 @@
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3077,7 +3090,7 @@
       <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3093,7 +3106,7 @@
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3109,7 +3122,7 @@
       <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3125,7 +3138,7 @@
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3142,7 +3155,7 @@
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3158,7 +3171,7 @@
       <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3174,7 +3187,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3182,7 +3195,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -3190,7 +3203,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="36"/>
@@ -3198,7 +3211,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="36"/>
@@ -3254,7 +3267,7 @@
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3290,7 +3303,7 @@
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3306,7 +3319,7 @@
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3342,7 +3355,7 @@
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3360,7 +3373,7 @@
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3396,7 +3409,7 @@
       <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3412,7 +3425,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -3420,7 +3433,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -3428,7 +3441,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3436,7 +3449,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -3492,7 +3505,7 @@
       <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3528,7 +3541,7 @@
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3544,7 +3557,7 @@
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3580,7 +3593,7 @@
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3598,7 +3611,7 @@
       <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3636,7 +3649,7 @@
       <c r="A10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3652,7 +3665,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -3660,7 +3673,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -3668,7 +3681,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3676,7 +3689,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -3732,7 +3745,7 @@
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3788,7 +3801,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3804,7 +3817,7 @@
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3842,7 +3855,7 @@
       <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3862,7 +3875,7 @@
       <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3880,7 +3893,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="36"/>
@@ -3888,7 +3901,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -3896,7 +3909,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -3904,7 +3917,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3931,9 +3944,9 @@
     <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -3960,7 +3973,7 @@
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3972,7 +3985,7 @@
       <c r="E2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4020,7 +4033,7 @@
       <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -4038,7 +4051,7 @@
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4056,7 +4069,7 @@
       <c r="A7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4068,13 +4081,13 @@
       <c r="E7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -4086,13 +4099,13 @@
       <c r="E8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4104,13 +4117,13 @@
       <c r="E9" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4120,13 +4133,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4138,7 +4151,7 @@
       <c r="E11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4161,9 +4174,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -4190,7 +4203,7 @@
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4202,7 +4215,7 @@
       <c r="E2" s="7">
         <v>43317</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4250,7 +4263,7 @@
       <c r="A5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -4268,7 +4281,7 @@
       <c r="A6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>158</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4286,7 +4299,7 @@
       <c r="A7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4298,13 +4311,13 @@
       <c r="E7" s="35">
         <v>43317</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -4316,13 +4329,13 @@
       <c r="E8" s="35">
         <v>43317</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4342,7 +4355,7 @@
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4352,13 +4365,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>166</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -4395,9 +4408,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19" style="17" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19" style="18" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -4424,7 +4437,7 @@
       <c r="A2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="7">
@@ -4433,10 +4446,10 @@
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="25">
         <v>43324</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4447,16 +4460,16 @@
       <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
         <v>43324</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4473,10 +4486,10 @@
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="14">
         <v>0.7</v>
       </c>
     </row>
@@ -4484,37 +4497,37 @@
       <c r="A5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="22">
         <v>43324</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="25">
         <v>43324</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <v>43324</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4522,7 +4535,7 @@
       <c r="A7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>176</v>
       </c>
       <c r="C7" s="7">
@@ -4531,10 +4544,10 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4542,10 +4555,10 @@
       <c r="A8" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <v>43324</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4562,7 +4575,7 @@
       <c r="A9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="7">
@@ -4574,7 +4587,7 @@
       <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4582,7 +4595,7 @@
       <c r="A10" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="7">
@@ -4591,28 +4604,28 @@
       <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>43324</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <v>43324</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4620,35 +4633,35 @@
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="22">
         <v>43324</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="25">
         <v>43324</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -665,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -703,39 +703,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,9 +722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,15 +732,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,15 +750,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,36 +776,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,8 +790,62 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,7 +860,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,61 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,49 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,49 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,6 +1069,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1084,20 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,17 +1147,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,177 +1166,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,47 +1355,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1815,7 +1815,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29" style="38" customWidth="1"/>
-    <col min="2" max="2" width="56.6666666666667" style="17" customWidth="1"/>
+    <col min="2" max="2" width="56.6666666666667" style="16" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="38" customWidth="1"/>
     <col min="4" max="4" width="23.8333333333333" style="38" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
@@ -1846,7 +1846,7 @@
       <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1862,7 +1862,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39"/>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1880,7 +1880,7 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1900,7 +1900,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1918,7 +1918,7 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1936,7 +1936,7 @@
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1954,7 +1954,7 @@
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1972,7 +1972,7 @@
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1988,7 +1988,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="36"/>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -2042,9 +2042,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -2083,7 +2083,7 @@
       <c r="E2" s="7">
         <v>43331</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -2101,7 +2101,7 @@
       <c r="E3" s="7">
         <v>43331</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2121,13 +2121,13 @@
       <c r="E4" s="7">
         <v>43331</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="7">
@@ -2139,7 +2139,7 @@
       <c r="E5" s="7">
         <v>43331</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="7">
@@ -2159,13 +2159,13 @@
       <c r="E6" s="7">
         <v>43331</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="7">
@@ -2177,13 +2177,13 @@
       <c r="E7" s="7">
         <v>43331</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="7">
@@ -2195,13 +2195,13 @@
       <c r="E8" s="7">
         <v>43331</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="7">
@@ -2213,13 +2213,13 @@
       <c r="E9" s="7">
         <v>43331</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>189</v>
       </c>
       <c r="C10" s="7">
@@ -2231,29 +2231,29 @@
       <c r="E10" s="7">
         <v>43331</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="7">
@@ -2265,7 +2265,7 @@
       <c r="E12" s="7">
         <v>43331</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2288,9 +2288,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -2329,7 +2329,7 @@
       <c r="E2" s="7">
         <v>43338</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       <c r="E3" s="7">
         <v>43338</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       <c r="E4" s="7">
         <v>43338</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="A5" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="7">
@@ -2389,7 +2389,7 @@
       <c r="E5" s="7">
         <v>43338</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="7">
@@ -2409,7 +2409,7 @@
       <c r="E6" s="7">
         <v>43338</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="A7" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="7">
@@ -2429,7 +2429,7 @@
       <c r="E7" s="7">
         <v>43338</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       <c r="A8" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2449,7 +2449,7 @@
       <c r="E8" s="7">
         <v>43338</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2457,10 +2457,10 @@
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2469,7 +2469,7 @@
       <c r="E9" s="7">
         <v>43338</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="7">
@@ -2489,7 +2489,7 @@
       <c r="E10" s="7">
         <v>43338</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2516,7 +2516,6 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -2575,7 +2574,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="1:6">
+    <row r="4" ht="26" customHeight="1" spans="1:6">
       <c r="A4" s="11" t="s">
         <v>205</v>
       </c>
@@ -2591,9 +2590,7 @@
       <c r="E4" s="9">
         <v>43345</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
@@ -2611,9 +2608,7 @@
       <c r="E5" s="9">
         <v>43345</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -2631,9 +2626,7 @@
       <c r="E6" s="9">
         <v>43345</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
@@ -2651,18 +2644,16 @@
       <c r="E7" s="9">
         <v>43345</v>
       </c>
-      <c r="F7" s="14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:6">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2671,15 +2662,13 @@
       <c r="E8" s="9">
         <v>43345</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:6">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C9" s="7">
@@ -2691,9 +2680,7 @@
       <c r="E9" s="9">
         <v>43345</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2744,7 +2731,7 @@
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2764,7 +2751,7 @@
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2784,7 +2771,7 @@
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
@@ -2800,7 +2787,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2820,7 +2807,7 @@
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2840,7 +2827,7 @@
       <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2858,7 +2845,7 @@
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2878,7 +2865,7 @@
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2896,7 +2883,7 @@
       <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2914,7 +2901,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -2922,7 +2909,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -2930,7 +2917,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -2938,7 +2925,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -2994,7 +2981,7 @@
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3014,7 +3001,7 @@
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
@@ -3032,7 +3019,7 @@
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3052,7 +3039,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3072,7 +3059,7 @@
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3090,7 +3077,7 @@
       <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3106,7 +3093,7 @@
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3122,7 +3109,7 @@
       <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3138,7 +3125,7 @@
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3155,7 +3142,7 @@
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3171,7 +3158,7 @@
       <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3187,7 +3174,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3195,7 +3182,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -3203,7 +3190,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="36"/>
@@ -3211,7 +3198,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="36"/>
@@ -3267,7 +3254,7 @@
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3303,7 +3290,7 @@
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3319,7 +3306,7 @@
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3355,7 +3342,7 @@
       <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3373,7 +3360,7 @@
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3409,7 +3396,7 @@
       <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3425,7 +3412,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -3433,7 +3420,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -3441,7 +3428,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3449,7 +3436,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -3505,7 +3492,7 @@
       <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3541,7 +3528,7 @@
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3557,7 +3544,7 @@
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3593,7 +3580,7 @@
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3611,7 +3598,7 @@
       <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3649,7 +3636,7 @@
       <c r="A10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3665,7 +3652,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -3673,7 +3660,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -3681,7 +3668,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3689,7 +3676,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="36"/>
@@ -3745,7 +3732,7 @@
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3801,7 +3788,7 @@
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3817,7 +3804,7 @@
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3855,7 +3842,7 @@
       <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3875,7 +3862,7 @@
       <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3893,7 +3880,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="36"/>
@@ -3901,7 +3888,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="36"/>
@@ -3909,7 +3896,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="36"/>
@@ -3917,7 +3904,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="36"/>
@@ -3944,9 +3931,9 @@
     <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -3973,7 +3960,7 @@
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3985,7 +3972,7 @@
       <c r="E2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4033,7 +4020,7 @@
       <c r="A5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -4051,7 +4038,7 @@
       <c r="A6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4069,7 +4056,7 @@
       <c r="A7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4081,13 +4068,13 @@
       <c r="E7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -4099,13 +4086,13 @@
       <c r="E8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4117,13 +4104,13 @@
       <c r="E9" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4133,13 +4120,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4151,7 +4138,7 @@
       <c r="E11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4174,9 +4161,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -4203,7 +4190,7 @@
       <c r="A2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4215,7 +4202,7 @@
       <c r="E2" s="7">
         <v>43317</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4263,7 +4250,7 @@
       <c r="A5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -4281,7 +4268,7 @@
       <c r="A6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>158</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4299,7 +4286,7 @@
       <c r="A7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>160</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4311,13 +4298,13 @@
       <c r="E7" s="35">
         <v>43317</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>162</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -4329,13 +4316,13 @@
       <c r="E8" s="35">
         <v>43317</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4355,7 +4342,7 @@
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4365,13 +4352,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="36"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -4408,9 +4395,9 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -4437,7 +4424,7 @@
       <c r="A2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="7">
@@ -4446,10 +4433,10 @@
       <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>43324</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4460,16 +4447,16 @@
       <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>43324</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4486,10 +4473,10 @@
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="27">
         <v>0.7</v>
       </c>
     </row>
@@ -4497,37 +4484,37 @@
       <c r="A5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>43324</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>43324</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>43324</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4535,7 +4522,7 @@
       <c r="A7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C7" s="7">
@@ -4544,10 +4531,10 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4555,10 +4542,10 @@
       <c r="A8" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>43324</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4575,7 +4562,7 @@
       <c r="A9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="7">
@@ -4587,7 +4574,7 @@
       <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4595,7 +4582,7 @@
       <c r="A10" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="7">
@@ -4604,28 +4591,28 @@
       <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>43324</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>43324</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4633,35 +4620,35 @@
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>43324</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>43324</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="500" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="8月13日-8月19日" sheetId="10" r:id="rId10"/>
     <sheet name="8月20日-8月26日" sheetId="11" r:id="rId11"/>
     <sheet name="8月27日-9月2日" sheetId="12" r:id="rId12"/>
+    <sheet name="9月3日-9月9日" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>任务名称</t>
   </si>
@@ -661,6 +662,42 @@
   </si>
   <si>
     <t>完成70%</t>
+  </si>
+  <si>
+    <t>定时任务功能完善</t>
+  </si>
+  <si>
+    <t>能自动生成里程碑节点并持久化到数据库</t>
+  </si>
+  <si>
+    <t>继续标注图像并训练DL模型</t>
+  </si>
+  <si>
+    <t>继续标注图像提高网络性能</t>
+  </si>
+  <si>
+    <t>aCloud数据库设计</t>
+  </si>
+  <si>
+    <t>将大部分System数据库设计迁移到云端，表结构中应该有机构ID字段</t>
+  </si>
+  <si>
+    <t>aCloud Springboot项目搭建</t>
+  </si>
+  <si>
+    <t>搭建云端项目架构</t>
+  </si>
+  <si>
+    <t>图像上传云端接口预研开发</t>
+  </si>
+  <si>
+    <t>将System本地图像传到云端minio的python代码预研开发</t>
+  </si>
+  <si>
+    <t>功能测试</t>
+  </si>
+  <si>
+    <t>对已有页面功能（非完整流程）进行测试并输出结果到Git Issue</t>
   </si>
 </sst>
 </file>
@@ -669,9 +706,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -703,8 +740,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,12 +758,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -732,7 +816,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -755,85 +846,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,6 +866,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -863,7 +900,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,13 +954,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +1002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,43 +1044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,85 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,65 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1155,6 +1133,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1169,16 +1195,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,138 +1224,141 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,6 +1366,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,36 +1377,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1390,9 +1440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1817,209 +1864,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29" style="38" customWidth="1"/>
-    <col min="2" max="2" width="56.6666666666667" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" style="38" customWidth="1"/>
+    <col min="1" max="1" width="29" style="42" customWidth="1"/>
+    <col min="2" max="2" width="56.6666666666667" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="23.8333333333333" style="42" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="39"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2045,230 +2092,230 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19" style="23" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="20">
         <v>43331</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="20">
         <v>43331</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="20">
         <v>43331</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="20">
         <v>43331</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="20">
         <v>43331</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="20">
         <v>43331</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="20">
         <v>43331</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="20">
         <v>43331</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="20">
         <v>43331</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="20">
         <v>43331</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="20">
         <v>43331</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="20">
         <v>43331</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="20">
         <v>43331</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="20">
         <v>43331</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="20">
         <v>43331</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="20">
         <v>43331</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="20">
         <v>43331</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="20">
         <v>43331</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="20">
         <v>43331</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="20">
         <v>43331</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2291,208 +2338,208 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19" style="23" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="20">
         <v>43338</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="20">
         <v>43338</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="25" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="20">
         <v>43338</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="20">
         <v>43338</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="25" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="20">
         <v>43338</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="20">
         <v>43338</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="20">
         <v>43338</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="20">
         <v>43338</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="20">
         <v>43338</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="20">
         <v>43338</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="20">
         <v>43338</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="20">
         <v>43338</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="20">
         <v>43338</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="20">
         <v>43338</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="20">
         <v>43336</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="20">
         <v>43338</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2508,8 +2555,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2523,180 +2570,373 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="20">
         <v>43345</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>43345</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="20">
         <v>43345</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>43345</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="20">
         <v>43345</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>43345</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="20">
         <v>43345</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>43345</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="20">
         <v>43345</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>43345</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="20">
         <v>43345</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>43345</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="B8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43345</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43345</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43345</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="31" customHeight="1" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="10">
+        <v>43352</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43352</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43352</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43352</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43352</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" ht="28.5" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="B8" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43352</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9">
-        <v>43345</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="28.5" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="7">
-        <v>43345</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9">
-        <v>43345</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2724,228 +2964,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="40" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2974,251 +3214,251 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" ht="28.5" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3247,216 +3487,216 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3485,218 +3725,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="37" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3725,206 +3965,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3947,214 +4187,214 @@
     <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="36" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4177,216 +4417,216 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="20">
         <v>43317</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="36" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="36" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="38">
         <v>43317</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="39">
         <v>43317</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="39">
         <v>43317</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="36" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="36" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4411,260 +4651,260 @@
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19" style="18" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19" style="23" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="20">
         <v>43324</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="13">
         <v>43324</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="27">
         <v>43324</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="20">
         <v>43324</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="27">
         <v>43324</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="13">
         <v>43324</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="27">
         <v>43324</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="20">
         <v>43324</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="25" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="27">
         <v>43324</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="33">
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="20">
         <v>43324</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="20">
         <v>43324</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="13">
         <v>43324</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="27">
         <v>43324</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="27">
         <v>43324</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="13">
         <v>43324</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="8" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="8月20日-8月26日" sheetId="11" r:id="rId11"/>
     <sheet name="8月27日-9月2日" sheetId="12" r:id="rId12"/>
     <sheet name="9月3日-9月9日" sheetId="13" r:id="rId13"/>
+    <sheet name="9月17日-9月23日" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>任务名称</t>
   </si>
@@ -698,6 +699,27 @@
   </si>
   <si>
     <t>对已有页面功能（非完整流程）进行测试并输出结果到Git Issue</t>
+  </si>
+  <si>
+    <t>评分功能实现</t>
+  </si>
+  <si>
+    <t>根据设定的评分标准计算胚胎评分值</t>
+  </si>
+  <si>
+    <t>超链接补充完整</t>
+  </si>
+  <si>
+    <t>目前流程跳转链接的无法完整测试，补充完整所有跳转超链接</t>
+  </si>
+  <si>
+    <t>aCloud数据库设计实现</t>
+  </si>
+  <si>
+    <t>图像上传云端接口实现</t>
+  </si>
+  <si>
+    <t>使用minio客户端api将本地图像上传到云端对象存储</t>
   </si>
 </sst>
 </file>
@@ -705,10 +727,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -740,11 +762,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,8 +806,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,29 +863,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -825,14 +878,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,46 +907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,6 +919,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -912,13 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,37 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,37 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,37 +1066,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,19 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,26 +1131,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,16 +1156,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,30 +1187,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1206,157 +1195,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,9 +1433,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1419,9 +1441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1465,7 +1484,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1864,209 +1882,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29" style="42" customWidth="1"/>
+    <col min="1" max="1" width="29" style="40" customWidth="1"/>
     <col min="2" max="2" width="56.6666666666667" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" style="42" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="23.8333333333333" style="40" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="43"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2093,229 +2111,229 @@
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="19" style="23" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="20">
         <v>43331</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="20">
         <v>43331</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="20">
         <v>43331</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="20">
         <v>43331</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="20">
         <v>43331</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="20">
         <v>43331</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="20">
         <v>43331</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="20">
         <v>43331</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="20">
         <v>43331</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="20">
         <v>43331</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="20">
         <v>43331</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="20">
         <v>43331</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="20">
         <v>43331</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="20">
         <v>43331</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="20">
         <v>43331</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="20">
         <v>43331</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C10" s="20">
         <v>43331</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="20">
         <v>43331</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="20">
         <v>43331</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="20">
         <v>43331</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2339,207 +2357,207 @@
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="19" style="23" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>192</v>
       </c>
       <c r="C2" s="20">
         <v>43338</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="20">
         <v>43338</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C3" s="20">
         <v>43338</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="20">
         <v>43338</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="20">
         <v>43338</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="20">
         <v>43338</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="20">
         <v>43338</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="20">
         <v>43338</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="20">
         <v>43338</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="20">
         <v>43338</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="20">
         <v>43338</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="20">
         <v>43338</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="20">
         <v>43338</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="20">
         <v>43338</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="20">
         <v>43336</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="20">
         <v>43338</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2570,182 +2588,182 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>192</v>
       </c>
       <c r="C2" s="20">
         <v>43345</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>43345</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C3" s="20">
         <v>43345</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>43345</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C4" s="20">
         <v>43345</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>43345</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C5" s="20">
         <v>43345</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>43345</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C6" s="20">
         <v>43345</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>43345</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>210</v>
       </c>
       <c r="C7" s="20">
         <v>43345</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>43345</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>43345</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>204</v>
       </c>
       <c r="C9" s="20">
         <v>43345</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>43345</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2760,183 +2778,356 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>43352</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>43352</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>43352</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>43352</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>43352</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>43352</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="11">
+        <v>43359</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="31" customHeight="1" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43366</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43366</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43366</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43366</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" ht="28.5" spans="1:6">
+      <c r="A8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2964,228 +3155,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3214,251 +3405,251 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" ht="28.5" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3487,216 +3678,216 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3725,218 +3916,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3965,206 +4156,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="39" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4193,208 +4384,208 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4423,210 +4614,210 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="20">
         <v>43317</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>43317</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>43317</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>43317</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="35" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4652,259 +4843,259 @@
     <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="19" style="23" customWidth="1"/>
-    <col min="6" max="6" width="65.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="20">
         <v>43324</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>43324</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>43324</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="20">
         <v>43324</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>0.7</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>43324</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>43324</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>43324</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C7" s="20">
         <v>43324</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>43324</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="20">
         <v>43324</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="20">
         <v>43324</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>43324</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>43324</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>43324</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>43324</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/documents/周计划/Embryoai项目开发周计划.xlsx
+++ b/documents/周计划/Embryoai项目开发周计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="6月11日-6月17日" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,19 @@
     <sheet name="8月27日-9月2日" sheetId="12" r:id="rId12"/>
     <sheet name="9月3日-9月9日" sheetId="13" r:id="rId13"/>
     <sheet name="9月17日-9月23日" sheetId="14" r:id="rId14"/>
+    <sheet name="11月27日-12月1日" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="247">
   <si>
     <t>任务名称</t>
   </si>
@@ -720,23 +726,82 @@
   </si>
   <si>
     <t>使用minio客户端api将本地图像上传到云端对象存储</t>
+  </si>
+  <si>
+    <t>aCloud数据库mapper生成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成aCloud数据库的mapper xml文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月1日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册aCloud REST API</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月8日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冬梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步接口（病历）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人信息和病历数据同步接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月8日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘勇智</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证机构KEY、Secret，minio创建目录，minio创建用户，返回创建好的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步接口（胚胎）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎及相应里程碑数据同步接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月8日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾羊城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -762,352 +827,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1130,251 +865,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1492,57 +985,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1868,29 +1314,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29" style="40" customWidth="1"/>
-    <col min="2" max="2" width="56.6666666666667" style="22" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +1446,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" ht="28.5" spans="1:6">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -2018,7 +1464,7 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" ht="28.5" spans="1:6">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
@@ -2090,32 +1536,36 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +1603,7 @@
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
@@ -2283,7 +1733,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15" t="s">
         <v>188</v>
       </c>
@@ -2336,32 +1786,36 @@
       <c r="F12" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +1855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
@@ -2421,7 +1875,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="9" t="s">
         <v>196</v>
       </c>
@@ -2562,32 +2016,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="31" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>191</v>
       </c>
@@ -2627,7 +2085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="9" t="s">
         <v>194</v>
       </c>
@@ -2647,7 +2105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="26" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>205</v>
       </c>
@@ -2667,7 +2125,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="26" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>207</v>
       </c>
@@ -2687,7 +2145,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>209</v>
       </c>
@@ -2707,7 +2165,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>210</v>
       </c>
@@ -2727,7 +2185,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>44</v>
       </c>
@@ -2768,31 +2226,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="31" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>212</v>
       </c>
@@ -2830,7 +2292,7 @@
       </c>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" ht="31" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="31" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>214</v>
       </c>
@@ -2864,7 +2326,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" ht="36" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="36" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>216</v>
       </c>
@@ -2882,7 +2344,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" ht="26" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="26" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>218</v>
       </c>
@@ -2900,7 +2362,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" ht="24" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>210</v>
       </c>
@@ -2918,7 +2380,7 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" ht="28.5" spans="1:6">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="15" t="s">
         <v>220</v>
       </c>
@@ -2936,7 +2398,7 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="23" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -2954,7 +2416,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="19" t="s">
         <v>222</v>
       </c>
@@ -2973,31 +2435,35 @@
       <c r="F10" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="36.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="31" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>224</v>
       </c>
@@ -3033,7 +2499,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" ht="31" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="31" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>214</v>
       </c>
@@ -3049,7 +2515,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="15" t="s">
         <v>226</v>
       </c>
@@ -3065,7 +2531,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" ht="36" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="36" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>228</v>
       </c>
@@ -3081,7 +2547,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" ht="24" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>229</v>
       </c>
@@ -3097,7 +2563,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="23" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -3113,7 +2579,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" ht="28.5" spans="1:6">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="19" t="s">
         <v>222</v>
       </c>
@@ -3130,31 +2596,180 @@
       <c r="F8" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="31" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="44" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="23" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +2941,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
@@ -3379,32 +2994,36 @@
       <c r="F14" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F12"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3187,7 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
         <v>81</v>
       </c>
@@ -3585,7 +3204,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" ht="28.5" spans="1:6">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="15" t="s">
         <v>85</v>
       </c>
@@ -3601,7 +3220,7 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" ht="28.5" spans="1:6">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
@@ -3652,32 +3271,36 @@
       <c r="F16" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F10"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="15" t="s">
         <v>85</v>
       </c>
@@ -3890,32 +3513,36 @@
       <c r="F14" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4130,32 +3757,36 @@
       <c r="F14" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="28.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +3896,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" ht="28.5" spans="1:6">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="9" t="s">
         <v>120</v>
       </c>
@@ -4358,32 +3989,36 @@
       <c r="F13" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:6">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
@@ -4423,7 +4058,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="9" t="s">
         <v>134</v>
       </c>
@@ -4443,7 +4078,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:6">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="9" t="s">
         <v>120</v>
       </c>
@@ -4588,32 +4223,36 @@
       <c r="F11" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4292,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
@@ -4693,7 +4332,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:6">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="15" t="s">
         <v>155</v>
       </c>
@@ -4822,32 +4461,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="63.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
     <col min="6" max="6" width="65.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4887,7 +4530,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:6">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="9" t="s">
         <v>149</v>
       </c>
@@ -4927,7 +4570,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:6">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="15" t="s">
         <v>155</v>
       </c>
@@ -4965,7 +4608,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:6">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="15" t="s">
         <v>175</v>
       </c>
@@ -5098,8 +4741,13 @@
       <c r="F13" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>